--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Serping1-Sele.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Serping1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +525,1239 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2281609006871</v>
+        <v>22.63233633333333</v>
       </c>
       <c r="H2">
-        <v>20.2281609006871</v>
+        <v>67.897009</v>
       </c>
       <c r="I2">
-        <v>0.03395414689937931</v>
+        <v>0.0374450040810979</v>
       </c>
       <c r="J2">
-        <v>0.03395414689937931</v>
+        <v>0.0374450040810979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.0528430057841</v>
+        <v>13.27954633333333</v>
       </c>
       <c r="N2">
-        <v>13.0528430057841</v>
+        <v>39.838639</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9815483547588711</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9815483547588713</v>
       </c>
       <c r="Q2">
-        <v>264.035008532409</v>
+        <v>300.5471589700834</v>
       </c>
       <c r="R2">
-        <v>264.035008532409</v>
+        <v>2704.924430730751</v>
       </c>
       <c r="S2">
-        <v>0.03395414689937931</v>
+        <v>0.03675408214974086</v>
       </c>
       <c r="T2">
-        <v>0.03395414689937931</v>
+        <v>0.03675408214974087</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>546.963969644332</v>
+        <v>22.63233633333333</v>
       </c>
       <c r="H3">
-        <v>546.963969644332</v>
+        <v>67.897009</v>
       </c>
       <c r="I3">
-        <v>0.9181108982250809</v>
+        <v>0.0374450040810979</v>
       </c>
       <c r="J3">
-        <v>0.9181108982250809</v>
+        <v>0.0374450040810979</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>13.0528430057841</v>
+        <v>0.1018873333333333</v>
       </c>
       <c r="N3">
-        <v>13.0528430057841</v>
+        <v>0.305662</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.007530930793401502</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.007530930793401503</v>
       </c>
       <c r="Q3">
-        <v>7139.434825587926</v>
+        <v>2.305948396106444</v>
       </c>
       <c r="R3">
-        <v>7139.434825587926</v>
+        <v>20.753535564958</v>
       </c>
       <c r="S3">
-        <v>0.9181108982250809</v>
+        <v>0.0002819957342933851</v>
       </c>
       <c r="T3">
-        <v>0.9181108982250809</v>
+        <v>0.0002819957342933852</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.412687281165112</v>
+        <v>22.63233633333333</v>
       </c>
       <c r="H4">
-        <v>0.412687281165112</v>
+        <v>67.897009</v>
       </c>
       <c r="I4">
-        <v>0.0006927196514295918</v>
+        <v>0.0374450040810979</v>
       </c>
       <c r="J4">
-        <v>0.0006927196514295918</v>
+        <v>0.0374450040810979</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.0528430057841</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N4">
-        <v>13.0528430057841</v>
+        <v>0.188716</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.004649603600079689</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.004649603600079689</v>
       </c>
       <c r="Q4">
-        <v>5.386742291532088</v>
+        <v>1.423694661160444</v>
       </c>
       <c r="R4">
-        <v>5.386742291532088</v>
+        <v>12.813251950444</v>
       </c>
       <c r="S4">
-        <v>0.0006927196514295918</v>
+        <v>0.0001741044257804714</v>
       </c>
       <c r="T4">
-        <v>0.0006927196514295918</v>
+        <v>0.0001741044257804715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>22.63233633333333</v>
+      </c>
+      <c r="H5">
+        <v>67.897009</v>
+      </c>
+      <c r="I5">
+        <v>0.0374450040810979</v>
+      </c>
+      <c r="J5">
+        <v>0.0374450040810979</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.084843</v>
+      </c>
+      <c r="N5">
+        <v>0.254529</v>
+      </c>
+      <c r="O5">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P5">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q5">
+        <v>1.920195311529</v>
+      </c>
+      <c r="R5">
+        <v>17.281757803761</v>
+      </c>
+      <c r="S5">
+        <v>0.0002348217712831854</v>
+      </c>
+      <c r="T5">
+        <v>0.0002348217712831855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>551.8375956666666</v>
+      </c>
+      <c r="H6">
+        <v>1655.512787</v>
+      </c>
+      <c r="I6">
+        <v>0.9130105136961889</v>
+      </c>
+      <c r="J6">
+        <v>0.9130105136961888</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N6">
+        <v>39.838639</v>
+      </c>
+      <c r="O6">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P6">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q6">
+        <v>7328.152920130766</v>
+      </c>
+      <c r="R6">
+        <v>65953.37628117688</v>
+      </c>
+      <c r="S6">
+        <v>0.896163967596046</v>
+      </c>
+      <c r="T6">
+        <v>0.896163967596046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>551.8375956666666</v>
+      </c>
+      <c r="H7">
+        <v>1655.512787</v>
+      </c>
+      <c r="I7">
+        <v>0.9130105136961889</v>
+      </c>
+      <c r="J7">
+        <v>0.9130105136961888</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.305662</v>
+      </c>
+      <c r="O7">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P7">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q7">
+        <v>56.22526105555488</v>
+      </c>
+      <c r="R7">
+        <v>506.0273494999939</v>
+      </c>
+      <c r="S7">
+        <v>0.006875818992293953</v>
+      </c>
+      <c r="T7">
+        <v>0.006875818992293953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>551.8375956666666</v>
+      </c>
+      <c r="H8">
+        <v>1655.512787</v>
+      </c>
+      <c r="I8">
+        <v>0.9130105136961889</v>
+      </c>
+      <c r="J8">
+        <v>0.9130105136961888</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.188716</v>
+      </c>
+      <c r="O8">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P8">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q8">
+        <v>34.71352790127688</v>
+      </c>
+      <c r="R8">
+        <v>312.421751111492</v>
+      </c>
+      <c r="S8">
+        <v>0.004245136971392406</v>
+      </c>
+      <c r="T8">
+        <v>0.004245136971392406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>551.8375956666666</v>
+      </c>
+      <c r="H9">
+        <v>1655.512787</v>
+      </c>
+      <c r="I9">
+        <v>0.9130105136961889</v>
+      </c>
+      <c r="J9">
+        <v>0.9130105136961888</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.084843</v>
+      </c>
+      <c r="N9">
+        <v>0.254529</v>
+      </c>
+      <c r="O9">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P9">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q9">
+        <v>46.819557129147</v>
+      </c>
+      <c r="R9">
+        <v>421.376014162323</v>
+      </c>
+      <c r="S9">
+        <v>0.005725590136456568</v>
+      </c>
+      <c r="T9">
+        <v>0.005725590136456568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1065133333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.31954</v>
+      </c>
+      <c r="I10">
+        <v>0.0001762253857761838</v>
+      </c>
+      <c r="J10">
+        <v>0.0001762253857761838</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N10">
+        <v>39.838639</v>
+      </c>
+      <c r="O10">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P10">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q10">
+        <v>1.414448745117778</v>
+      </c>
+      <c r="R10">
+        <v>12.73003870606</v>
+      </c>
+      <c r="S10">
+        <v>0.0001729737374753606</v>
+      </c>
+      <c r="T10">
+        <v>0.0001729737374753606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1065133333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.31954</v>
+      </c>
+      <c r="I11">
+        <v>0.0001762253857761838</v>
+      </c>
+      <c r="J11">
+        <v>0.0001762253857761838</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.305662</v>
+      </c>
+      <c r="O11">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P11">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q11">
+        <v>0.01085235949777778</v>
+      </c>
+      <c r="R11">
+        <v>0.09767123547999999</v>
+      </c>
+      <c r="S11">
+        <v>1.327141184320922E-06</v>
+      </c>
+      <c r="T11">
+        <v>1.327141184320922E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1065133333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.31954</v>
+      </c>
+      <c r="I12">
+        <v>0.0001762253857761838</v>
+      </c>
+      <c r="J12">
+        <v>0.0001762253857761838</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.188716</v>
+      </c>
+      <c r="O12">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P12">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q12">
+        <v>0.006700256737777777</v>
+      </c>
+      <c r="R12">
+        <v>0.06030231064</v>
+      </c>
+      <c r="S12">
+        <v>8.193781881303763E-07</v>
+      </c>
+      <c r="T12">
+        <v>8.193781881303763E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1065133333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.31954</v>
+      </c>
+      <c r="I13">
+        <v>0.0001762253857761838</v>
+      </c>
+      <c r="J13">
+        <v>0.0001762253857761838</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.084843</v>
+      </c>
+      <c r="N13">
+        <v>0.254529</v>
+      </c>
+      <c r="O13">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P13">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q13">
+        <v>0.009036910740000001</v>
+      </c>
+      <c r="R13">
+        <v>0.08133219665999999</v>
+      </c>
+      <c r="S13">
+        <v>1.105128928371927E-06</v>
+      </c>
+      <c r="T13">
+        <v>1.105128928371927E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.536369</v>
+      </c>
+      <c r="H14">
+        <v>1.609107</v>
+      </c>
+      <c r="I14">
+        <v>0.0008874178563878006</v>
+      </c>
+      <c r="J14">
+        <v>0.0008874178563878006</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N14">
+        <v>39.838639</v>
+      </c>
+      <c r="O14">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P14">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q14">
+        <v>7.122736987263667</v>
+      </c>
+      <c r="R14">
+        <v>64.10463288537301</v>
+      </c>
+      <c r="S14">
+        <v>0.0008710435369210898</v>
+      </c>
+      <c r="T14">
+        <v>0.0008710435369210899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.536369</v>
+      </c>
+      <c r="H15">
+        <v>1.609107</v>
+      </c>
+      <c r="I15">
+        <v>0.0008874178563878006</v>
+      </c>
+      <c r="J15">
+        <v>0.0008874178563878006</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.305662</v>
+      </c>
+      <c r="O15">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P15">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q15">
+        <v>0.05464920709266666</v>
+      </c>
+      <c r="R15">
+        <v>0.491842863834</v>
+      </c>
+      <c r="S15">
+        <v>6.683082461285239E-06</v>
+      </c>
+      <c r="T15">
+        <v>6.68308246128524E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.536369</v>
+      </c>
+      <c r="H16">
+        <v>1.609107</v>
+      </c>
+      <c r="I16">
+        <v>0.0008874178563878006</v>
+      </c>
+      <c r="J16">
+        <v>0.0008874178563878006</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.188716</v>
+      </c>
+      <c r="O16">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P16">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q16">
+        <v>0.03374047073466666</v>
+      </c>
+      <c r="R16">
+        <v>0.303664236612</v>
+      </c>
+      <c r="S16">
+        <v>4.126141259835717E-06</v>
+      </c>
+      <c r="T16">
+        <v>4.126141259835718E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.536369</v>
+      </c>
+      <c r="H17">
+        <v>1.609107</v>
+      </c>
+      <c r="I17">
+        <v>0.0008874178563878006</v>
+      </c>
+      <c r="J17">
+        <v>0.0008874178563878006</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.084843</v>
+      </c>
+      <c r="N17">
+        <v>0.254529</v>
+      </c>
+      <c r="O17">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P17">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q17">
+        <v>0.045507155067</v>
+      </c>
+      <c r="R17">
+        <v>0.409564395603</v>
+      </c>
+      <c r="S17">
+        <v>5.565095745589804E-06</v>
+      </c>
+      <c r="T17">
+        <v>5.565095745589805E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>28.1445308655031</v>
-      </c>
-      <c r="H5">
-        <v>28.1445308655031</v>
-      </c>
-      <c r="I5">
-        <v>0.04724223522411013</v>
-      </c>
-      <c r="J5">
-        <v>0.04724223522411013</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>13.0528430057841</v>
-      </c>
-      <c r="N5">
-        <v>13.0528430057841</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>367.3661428588568</v>
-      </c>
-      <c r="R5">
-        <v>367.3661428588568</v>
-      </c>
-      <c r="S5">
-        <v>0.04724223522411013</v>
-      </c>
-      <c r="T5">
-        <v>0.04724223522411013</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>29.30256466666667</v>
+      </c>
+      <c r="H18">
+        <v>87.90769400000001</v>
+      </c>
+      <c r="I18">
+        <v>0.04848083898054929</v>
+      </c>
+      <c r="J18">
+        <v>0.04848083898054929</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N18">
+        <v>39.838639</v>
+      </c>
+      <c r="O18">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P18">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q18">
+        <v>389.1247651764963</v>
+      </c>
+      <c r="R18">
+        <v>3502.122886588466</v>
+      </c>
+      <c r="S18">
+        <v>0.04758628773868791</v>
+      </c>
+      <c r="T18">
+        <v>0.04758628773868791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>29.30256466666667</v>
+      </c>
+      <c r="H19">
+        <v>87.90769400000001</v>
+      </c>
+      <c r="I19">
+        <v>0.04848083898054929</v>
+      </c>
+      <c r="J19">
+        <v>0.04848083898054929</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.305662</v>
+      </c>
+      <c r="O19">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P19">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q19">
+        <v>2.985560173714223</v>
+      </c>
+      <c r="R19">
+        <v>26.870041563428</v>
+      </c>
+      <c r="S19">
+        <v>0.0003651058431685586</v>
+      </c>
+      <c r="T19">
+        <v>0.0003651058431685586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>29.30256466666667</v>
+      </c>
+      <c r="H20">
+        <v>87.90769400000001</v>
+      </c>
+      <c r="I20">
+        <v>0.04848083898054929</v>
+      </c>
+      <c r="J20">
+        <v>0.04848083898054929</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.188716</v>
+      </c>
+      <c r="O20">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P20">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q20">
+        <v>1.843287597878222</v>
+      </c>
+      <c r="R20">
+        <v>16.589588380904</v>
+      </c>
+      <c r="S20">
+        <v>0.0002254166834588457</v>
+      </c>
+      <c r="T20">
+        <v>0.0002254166834588457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>29.30256466666667</v>
+      </c>
+      <c r="H21">
+        <v>87.90769400000001</v>
+      </c>
+      <c r="I21">
+        <v>0.04848083898054929</v>
+      </c>
+      <c r="J21">
+        <v>0.04848083898054929</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.084843</v>
+      </c>
+      <c r="N21">
+        <v>0.254529</v>
+      </c>
+      <c r="O21">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P21">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q21">
+        <v>2.486117494014</v>
+      </c>
+      <c r="R21">
+        <v>22.375057446126</v>
+      </c>
+      <c r="S21">
+        <v>0.0003040287152339841</v>
+      </c>
+      <c r="T21">
+        <v>0.0003040287152339841</v>
       </c>
     </row>
   </sheetData>
